--- a/data/QT/Count_summary_QT_HEWR.xlsx
+++ b/data/QT/Count_summary_QT_HEWR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton.lamb/Google Drive/Documents/University/PDF/PDF Analyses/KZdemography/KZ_QT_IPM/data/QT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662677B4-2E49-2645-B42B-2FC22AEF449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B16241C-FBC1-6042-995F-1E8D7BF00DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="28720" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MinCount_summary_KZ-withimm" sheetId="2" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>MinCount</t>
   </si>
   <si>
-    <t>Slight difference from the report due to removal of one group of 2 caribou (with one collar) that was outside the herd range . Data Update: 2016 report records 'juveniles = 6', updated to 'juveniles = 5', one group of two caribou (one collared, car 191) determined to be outside herd boundary.</t>
-  </si>
-  <si>
     <t>#'s from KMB updated gov #'s</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>#'s from KMB updated gov #'s, but only using HEWR, whereas KMB added in others and made MKNA 88, we used only HEWR core</t>
+  </si>
+  <si>
+    <t>Slight difference from the report due to removal of one group of 2 caribou (with one collar) that was outside the herd range . Data Update: 2016 report records 'juveniles = 6', updated to 'juveniles = 5', one group of two caribou (one collared, car 191) determined to be outside herd boundary. Report has sightability at 7/15, but two animals not within HEWR, so to get HEWR sightability we use 7/13</t>
   </si>
 </sst>
 </file>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="S1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
         <v>0.75</v>
       </c>
       <c r="J3">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="K3">
         <f>F3/I3</f>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="L3">
         <f>F3*J3</f>
-        <v>27.06</v>
+        <v>28.290000000000003</v>
       </c>
       <c r="M3">
         <f>G3/I3</f>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="N3">
         <f>G3*J3</f>
-        <v>6.82</v>
+        <v>7.13</v>
       </c>
       <c r="O3">
         <f>SUM(M3,K3)</f>
@@ -1134,7 +1134,7 @@
         <v>17</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
         <v>7</v>
       </c>
       <c r="S9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1327,10 +1327,10 @@
         <v>12</v>
       </c>
       <c r="Q14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1377,39 +1377,39 @@
         <v>0.64</v>
       </c>
       <c r="I17">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="J17">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K17">
         <f>F17/I17</f>
-        <v>44</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L17">
         <f>F17*J17</f>
-        <v>2.8600000000000003</v>
+        <v>3.08</v>
       </c>
       <c r="M17">
         <f>G17/I17</f>
-        <v>10</v>
+        <v>9.2592592592592595</v>
       </c>
       <c r="N17">
         <f>G17*J17</f>
-        <v>0.65</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="O17">
         <f>SUM(M17,K17)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P17" t="s">
         <v>18</v>
       </c>
       <c r="Q17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -1448,14 +1448,14 @@
         <v>0.64</v>
       </c>
       <c r="I19">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="J19">
         <v>0.11</v>
       </c>
       <c r="K19">
         <f>F19/I19</f>
-        <v>55.223880597014919</v>
+        <v>49.333333333333336</v>
       </c>
       <c r="L19">
         <f>F19*J19</f>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="M19">
         <f>G19/I19</f>
-        <v>17.910447761194028</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <f>G19*J19</f>
@@ -1471,16 +1471,16 @@
       </c>
       <c r="O19">
         <f>SUM(M19,K19)</f>
-        <v>73.134328358208947</v>
+        <v>65.333333333333343</v>
       </c>
       <c r="P19" t="s">
         <v>19</v>
       </c>
       <c r="Q19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -1511,14 +1511,14 @@
         <v>0.64</v>
       </c>
       <c r="I20">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="J20">
         <v>0.16</v>
       </c>
       <c r="K20">
         <f>F20/I20</f>
-        <v>48</v>
+        <v>41.860465116279073</v>
       </c>
       <c r="L20">
         <f>F20*J20</f>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="M20">
         <f>G20/I20</f>
-        <v>16</v>
+        <v>13.953488372093023</v>
       </c>
       <c r="N20">
         <f>G20*J20</f>
@@ -1534,16 +1534,16 @@
       </c>
       <c r="O20">
         <f>SUM(M20,K20)</f>
-        <v>64</v>
+        <v>55.813953488372093</v>
       </c>
       <c r="P20" t="s">
         <v>20</v>
       </c>
       <c r="Q20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -1585,7 +1585,7 @@
         <v>0.5</v>
       </c>
       <c r="J22">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K22">
         <f>F22/I22</f>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="L22">
         <f t="shared" ref="L22" si="0">F22*J22</f>
-        <v>6.24</v>
+        <v>6.6300000000000008</v>
       </c>
       <c r="M22">
         <f t="shared" ref="M22" si="1">G22/I22</f>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="N22">
         <f>G22*J22</f>
-        <v>1.6</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="O22">
         <f>SUM(M22,K22)</f>
@@ -1611,7 +1611,7 @@
         <v>23</v>
       </c>
       <c r="S22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/QT/Count_summary_QT_HEWR.xlsx
+++ b/data/QT/Count_summary_QT_HEWR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton.lamb/Google Drive/Documents/University/PDF/PDF Analyses/KZdemography/KZ_QT_IPM/data/QT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B16241C-FBC1-6042-995F-1E8D7BF00DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDAC70-B025-B94D-A228-A942BB998E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="28720" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33220" yWindow="1820" windowWidth="28720" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MinCount_summary_KZ-withimm" sheetId="2" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>MinCount_CALFMF</t>
   </si>
   <si>
-    <t>##not finalized, new data, check with Agnes</t>
-  </si>
-  <si>
     <t>Estimate</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Slight difference from the report due to removal of one group of 2 caribou (with one collar) that was outside the herd range . Data Update: 2016 report records 'juveniles = 6', updated to 'juveniles = 5', one group of two caribou (one collared, car 191) determined to be outside herd boundary. Report has sightability at 7/15, but two animals not within HEWR, so to get HEWR sightability we use 7/13</t>
+  </si>
+  <si>
+    <t>Pelletier 2021 In prep</t>
   </si>
 </sst>
 </file>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,7 +1014,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="S1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1134,7 +1134,7 @@
         <v>17</v>
       </c>
       <c r="S3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
         <v>7</v>
       </c>
       <c r="S9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1280,10 +1280,10 @@
       </c>
       <c r="C14">
         <f>SUM(D14:E14)</f>
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D14">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -1327,10 +1327,10 @@
         <v>12</v>
       </c>
       <c r="Q14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B17">
         <f>G17+F17</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <f>SUM(D17:E17)</f>
@@ -1368,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="F17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -1377,39 +1377,39 @@
         <v>0.64</v>
       </c>
       <c r="I17">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="J17">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K17">
         <f>F17/I17</f>
-        <v>40.74074074074074</v>
+        <v>34.285714285714285</v>
       </c>
       <c r="L17">
         <f>F17*J17</f>
-        <v>3.08</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="M17">
         <f>G17/I17</f>
-        <v>9.2592592592592595</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="N17">
         <f>G17*J17</f>
-        <v>0.70000000000000007</v>
+        <v>0.75</v>
       </c>
       <c r="O17">
         <f>SUM(M17,K17)</f>
-        <v>50</v>
+        <v>41.428571428571431</v>
       </c>
       <c r="P17" t="s">
         <v>18</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -1477,10 +1477,10 @@
         <v>19</v>
       </c>
       <c r="Q19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -1493,13 +1493,13 @@
       </c>
       <c r="C20">
         <f>SUM(D20:E20)</f>
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2">
         <v>36</v>
@@ -1540,10 +1540,10 @@
         <v>20</v>
       </c>
       <c r="Q20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -1564,13 +1564,13 @@
       </c>
       <c r="C22">
         <f>SUM(D22:E22)</f>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>39</v>
@@ -1592,11 +1592,11 @@
         <v>78</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22" si="0">F22*J22</f>
+        <f>F22*J22</f>
         <v>6.6300000000000008</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M22" si="1">G22/I22</f>
+        <f>G22/I22</f>
         <v>20</v>
       </c>
       <c r="N22">
@@ -1608,10 +1608,10 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/QT/Count_summary_QT_HEWR.xlsx
+++ b/data/QT/Count_summary_QT_HEWR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton.lamb/Google Drive/Documents/University/PDF/PDF Analyses/KZdemography/KZ_QT_IPM/data/QT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDAC70-B025-B94D-A228-A942BB998E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00576752-D21C-7C42-B366-62952D562487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33220" yWindow="1820" windowWidth="28720" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="500" windowWidth="28720" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MinCount_summary_KZ-withimm" sheetId="2" r:id="rId1"/>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,16 +1112,16 @@
         <v>164</v>
       </c>
       <c r="L3">
-        <f>F3*J3</f>
-        <v>28.290000000000003</v>
+        <f>(F3/(I3-J3))-K3</f>
+        <v>72.538461538461519</v>
       </c>
       <c r="M3">
         <f>G3/I3</f>
         <v>41.333333333333336</v>
       </c>
       <c r="N3">
-        <f>G3*J3</f>
-        <v>7.13</v>
+        <f>(G3/(I3-J3))-M3</f>
+        <v>18.282051282051277</v>
       </c>
       <c r="O3">
         <f>SUM(M3,K3)</f>
@@ -1216,16 +1216,16 @@
         <v>135.08771929824562</v>
       </c>
       <c r="L9">
-        <f>F9*J9</f>
-        <v>10.01</v>
+        <f>(F9/(I9-J9))-K9</f>
+        <v>39.912280701754412</v>
       </c>
       <c r="M9">
         <f>G9/I9</f>
         <v>31.578947368421055</v>
       </c>
       <c r="N9">
-        <f>G9*J9</f>
-        <v>2.34</v>
+        <f>(G9/(I9-J9))-M9</f>
+        <v>9.3301435406698587</v>
       </c>
       <c r="O9">
         <f>SUM(M9,K9)</f>
@@ -1308,16 +1308,16 @@
         <v>91.764705882352942</v>
       </c>
       <c r="L14">
-        <f>F14*J14</f>
-        <v>7.8000000000000007</v>
+        <f>(F14/(I14-J14))-K14</f>
+        <v>12.235294117647058</v>
       </c>
       <c r="M14">
         <f>G14/I14</f>
         <v>5.882352941176471</v>
       </c>
       <c r="N14">
-        <f>G14*J14</f>
-        <v>0.5</v>
+        <f>(G14/(I14-J14))-M14</f>
+        <v>0.78431372549019596</v>
       </c>
       <c r="O14">
         <f>SUM(M14,K14)</f>
@@ -1395,8 +1395,8 @@
         <v>7.1428571428571432</v>
       </c>
       <c r="N17">
-        <f>G17*J17</f>
-        <v>0.75</v>
+        <f>(G17/(I17-J17))-M17</f>
+        <v>1.9480519480519485</v>
       </c>
       <c r="O17">
         <f>SUM(M17,K17)</f>
@@ -1448,6 +1448,7 @@
         <v>0.64</v>
       </c>
       <c r="I19">
+        <f>0.75</f>
         <v>0.75</v>
       </c>
       <c r="J19">
@@ -1458,16 +1459,16 @@
         <v>49.333333333333336</v>
       </c>
       <c r="L19">
-        <f>F19*J19</f>
-        <v>4.07</v>
+        <f>(F19/(I19-J19))-K19</f>
+        <v>8.4791666666666643</v>
       </c>
       <c r="M19">
         <f>G19/I19</f>
         <v>16</v>
       </c>
       <c r="N19">
-        <f>G19*J19</f>
-        <v>1.32</v>
+        <f>(G19/(I19-J19))-M19</f>
+        <v>2.75</v>
       </c>
       <c r="O19">
         <f>SUM(M19,K19)</f>
@@ -1521,16 +1522,16 @@
         <v>41.860465116279073</v>
       </c>
       <c r="L20">
-        <f>F20*J20</f>
-        <v>5.76</v>
+        <f>(F20/(I20-J20))-K20</f>
+        <v>9.5681063122923575</v>
       </c>
       <c r="M20">
         <f>G20/I20</f>
         <v>13.953488372093023</v>
       </c>
       <c r="N20">
-        <f>G20*J20</f>
-        <v>1.92</v>
+        <f>(G20/(I20-J20))-M20</f>
+        <v>3.1893687707641192</v>
       </c>
       <c r="O20">
         <f>SUM(M20,K20)</f>
@@ -1592,16 +1593,16 @@
         <v>78</v>
       </c>
       <c r="L22">
-        <f>F22*J22</f>
-        <v>6.6300000000000008</v>
+        <f>(F22/(I22-J22))-K22</f>
+        <v>40.181818181818201</v>
       </c>
       <c r="M22">
         <f>G22/I22</f>
         <v>20</v>
       </c>
       <c r="N22">
-        <f>G22*J22</f>
-        <v>1.7000000000000002</v>
+        <f>(G22/(I22-J22))-M22</f>
+        <v>10.303030303030308</v>
       </c>
       <c r="O22">
         <f>SUM(M22,K22)</f>
